--- a/biology/Zoologie/Fausse-bythinelle_bretonne/Fausse-bythinelle_bretonne.xlsx
+++ b/biology/Zoologie/Fausse-bythinelle_bretonne/Fausse-bythinelle_bretonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marstoniopsis armoricana, appelé communément Fausse-bythinelle bretonne est une espèce de mollusques gastéropodes de la famille   des Amnicolidae, endémique du nord-ouest de la France, en Bretagne, dans la rivière de l'Erdre entre les villes de Rennes et Nantes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Fausse-bythinelle bretonne est une espèce qui vit dans les rivières et les chenaux à faible débit[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fausse-bythinelle bretonne est une espèce qui vit dans les rivières et les chenaux à faible débit.
 Dans la publication originale, l'auteur indique que Marstoniopsis armoricana mesure 2,5 mm de long et est d'un diamètre de 1,5 mm.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce n'est connue que sur un seul site où elle a été redécouverte en 2005[2]. Les données montrent que la population sur ce site semble avoir disparu. Pour cette raison, l'UICN a classé l'espèce en danger critique d'extinction en 2010[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce n'est connue que sur un seul site où elle a été redécouverte en 2005. Les données montrent que la population sur ce site semble avoir disparu. Pour cette raison, l'UICN a classé l'espèce en danger critique d'extinction en 2010.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Alcide de Paladilhe, Nouvelles miscellanées malacologiques,  (œuvre littéraire), Inconnu, Paris, 1869, [lire en ligne]</t>
         </is>
